--- a/datos_absorbancia.xlsx
+++ b/datos_absorbancia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masai\OneDrive\Escritorio\PFB\PFB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFAC13C-4F7A-4484-BED7-4B48595BE0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3780AD49-1DD2-468D-82F2-E7C29433E544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1365" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Tiempo</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>Absorbancia 3</t>
+  </si>
+  <si>
+    <t>AR 2%</t>
+  </si>
+  <si>
+    <t>AR 7%</t>
+  </si>
+  <si>
+    <t>AR 13%</t>
   </si>
 </sst>
 </file>
@@ -61,12 +70,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -89,6 +104,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,34 +411,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="2" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -428,13 +456,22 @@
         <v>0.248</v>
       </c>
       <c r="C2">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="D2">
         <v>0.125</v>
       </c>
-      <c r="D2">
+      <c r="E2">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="F2">
         <v>1.7809999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>3.1070000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>30</v>
       </c>
@@ -442,13 +479,22 @@
         <v>0.28699999999999998</v>
       </c>
       <c r="C3">
+        <v>9.2110000000000003</v>
+      </c>
+      <c r="D3">
         <v>2.3420000000000001</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="5">
+        <v>31.994</v>
+      </c>
+      <c r="F3">
         <v>0.55500000000000005</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>37.411000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>60</v>
       </c>
@@ -456,13 +502,22 @@
         <v>0.38</v>
       </c>
       <c r="C4">
+        <v>12.488</v>
+      </c>
+      <c r="D4">
         <v>0.91400000000000003</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="5">
+        <v>31.434999999999999</v>
+      </c>
+      <c r="F4">
         <v>0.64600000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>43.823</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>90</v>
       </c>
@@ -470,27 +525,45 @@
         <v>0.41299999999999998</v>
       </c>
       <c r="C5">
+        <v>13.675000000000001</v>
+      </c>
+      <c r="D5">
         <v>0.89200000000000002</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>30.643999999999998</v>
+      </c>
+      <c r="F5">
         <v>0.58399999999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>39.466000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>120</v>
       </c>
       <c r="B6">
         <v>2.093</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
+        <v>73.191000000000003</v>
+      </c>
+      <c r="D6">
         <v>0.93500000000000005</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>32.155999999999999</v>
+      </c>
+      <c r="F6">
         <v>0.64100000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>43.469000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>150</v>
       </c>
@@ -498,23 +571,32 @@
         <v>0.56599999999999995</v>
       </c>
       <c r="C7">
+        <v>19.094999999999999</v>
+      </c>
+      <c r="D7">
         <v>1.0229999999999999</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <v>35.284999999999997</v>
+      </c>
+      <c r="F7">
         <v>0.78500000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>53.670999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>180</v>
       </c>
       <c r="B8">
         <v>0.83299999999999996</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.81699999999999995</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>0.56200000000000006</v>
       </c>
     </row>

--- a/datos_absorbancia.xlsx
+++ b/datos_absorbancia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masai\OneDrive\Escritorio\PFB\PFB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3780AD49-1DD2-468D-82F2-E7C29433E544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B414D717-D351-450B-BC01-818A4EF1D625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1365" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Tiempo</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>AR 13%</t>
+  </si>
+  <si>
+    <t>Sustrato</t>
   </si>
 </sst>
 </file>
@@ -411,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,7 +428,7 @@
     <col min="7" max="7" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -447,8 +450,11 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -470,8 +476,11 @@
       <c r="G2">
         <v>3.1070000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>30</v>
       </c>
@@ -493,8 +502,11 @@
       <c r="G3">
         <v>37.411000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>60</v>
       </c>
@@ -516,8 +528,11 @@
       <c r="G4">
         <v>43.823</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>90</v>
       </c>
@@ -540,7 +555,7 @@
         <v>39.466000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>120</v>
       </c>
@@ -563,7 +578,7 @@
         <v>43.469000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>150</v>
       </c>
@@ -586,7 +601,7 @@
         <v>53.670999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>180</v>
       </c>

--- a/datos_absorbancia.xlsx
+++ b/datos_absorbancia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masai\OneDrive\Escritorio\PFB\PFB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tania\Documents\PFB\PFB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B414D717-D351-450B-BC01-818A4EF1D625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A77E409-C515-4EFB-BBBD-DE7E6CBE0703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1365" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Tiempo</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>Sustrato</t>
+  </si>
+  <si>
+    <t>Abs Etanol 2%</t>
+  </si>
+  <si>
+    <t>Abs Etanol 7%</t>
+  </si>
+  <si>
+    <t>Abs Etanol 13%</t>
   </si>
 </sst>
 </file>
@@ -99,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -110,6 +119,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,21 +426,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="16.21875" customWidth="1"/>
-    <col min="4" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="2" max="3" width="16.1796875" customWidth="1"/>
+    <col min="4" max="5" width="14.6328125" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -453,8 +468,17 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -479,8 +503,17 @@
       <c r="H2">
         <v>20</v>
       </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0.113</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1.899</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>30</v>
       </c>
@@ -505,8 +538,17 @@
       <c r="H3">
         <v>70</v>
       </c>
+      <c r="I3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="K3" s="6">
+        <v>5.2220000000000004</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>60</v>
       </c>
@@ -531,8 +573,17 @@
       <c r="H4">
         <v>130</v>
       </c>
+      <c r="I4" s="6">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="J4" s="6">
+        <v>2.698</v>
+      </c>
+      <c r="K4" s="6">
+        <v>7.6529999999999996</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>90</v>
       </c>
@@ -554,8 +605,17 @@
       <c r="G5">
         <v>39.466000000000001</v>
       </c>
+      <c r="I5" s="6">
+        <v>2.95</v>
+      </c>
+      <c r="J5" s="6">
+        <v>5.4690000000000003</v>
+      </c>
+      <c r="K5" s="6">
+        <v>10.497999999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>120</v>
       </c>
@@ -577,8 +637,17 @@
       <c r="G6">
         <v>43.469000000000001</v>
       </c>
+      <c r="I6" s="6">
+        <v>3.68</v>
+      </c>
+      <c r="J6" s="6">
+        <v>8.6159999999999997</v>
+      </c>
+      <c r="K6" s="6">
+        <v>13.879</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>150</v>
       </c>
@@ -600,8 +669,17 @@
       <c r="G7">
         <v>53.670999999999999</v>
       </c>
+      <c r="I7" s="6">
+        <v>5.68</v>
+      </c>
+      <c r="J7" s="6">
+        <v>10.23</v>
+      </c>
+      <c r="K7" s="6">
+        <v>15.67</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>180</v>
       </c>
